--- a/Datos informalidad/Output/informalidad.xlsx
+++ b/Datos informalidad/Output/informalidad.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3676,6 +3676,81 @@
         <v>0.112</v>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>ene2021_01</t>
+        </is>
+      </c>
+      <c r="B133">
+        <v>19577601.0000002</v>
+      </c>
+      <c r="C133">
+        <v>2021</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F133">
+        <v>2161171.080605983</v>
+      </c>
+      <c r="G133">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ene2021_02</t>
+        </is>
+      </c>
+      <c r="B134">
+        <v>19595837.00632833</v>
+      </c>
+      <c r="C134">
+        <v>2021</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44228</v>
+      </c>
+      <c r="F134">
+        <v>2174531.46125666</v>
+      </c>
+      <c r="G134">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>ene2021_03</t>
+        </is>
+      </c>
+      <c r="B135">
+        <v>19614131.00004772</v>
+      </c>
+      <c r="C135">
+        <v>2021</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44256</v>
+      </c>
+      <c r="F135">
+        <v>2123556.690623441</v>
+      </c>
+      <c r="G135">
+        <v>0.108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
